--- a/文档/交付文档模板/04.代码自测结果表（模板）.xlsx
+++ b/文档/交付文档模板/04.代码自测结果表（模板）.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\neuedu\99华南区VSS\01.华南区资源库\06.实训项目\FY17华南区实训项目管理流程\02.实施项目过程文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="12120" windowHeight="9000"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="12120" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="2" r:id="rId1"/>
     <sheet name="文件修改控制" sheetId="3" r:id="rId2"/>
     <sheet name="代码自测结果表" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>文件修改控制</t>
   </si>
@@ -146,6 +141,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>版权所有，翻版必究</t>
@@ -202,15 +198,97 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>安逸医院内部管理系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢云凤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者管理系统</t>
+  </si>
+  <si>
+    <t>安逸医院内部管理系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立患者档案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>该表单进行填写测试，没有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看患者列表信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入json数据，对该列表进行查看、添加、删除、编辑、导出等测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看患者挂号列表信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立住院患者档案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该表单进行填写测试，没有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立个人档案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工请（休）假申请表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工离职申请表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看投诉信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该表单进行填写测试，没有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动引入json中已经并且显示挂号数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动引入json中已经并且显示挂号数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -257,6 +335,7 @@
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -281,6 +360,7 @@
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -313,11 +393,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -330,6 +412,7 @@
       <b/>
       <sz val="15"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -348,6 +431,12 @@
       <b/>
       <sz val="12"/>
       <name val="楷体_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -812,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -951,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -972,7 +1061,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,6 +1118,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1047,35 +1166,23 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1191,7 +1298,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1284,7 +1391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1319,7 +1426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1533,7 +1640,9 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.25"/>
   <cols>
@@ -1973,7 +2082,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2208,15 +2317,19 @@
   </sheetPr>
   <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="0.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.125" style="1" customWidth="1"/>
     <col min="8" max="11" width="5" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.625" style="1" customWidth="1"/>
@@ -2234,20 +2347,20 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="2:13" s="43" customFormat="1" ht="15" thickBot="1">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="50"/>
       <c r="K2" s="36"/>
       <c r="L2" s="51" t="s">
@@ -2258,21 +2371,20 @@
       </c>
     </row>
     <row r="3" spans="2:13" s="43" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="45"/>
       <c r="I3" s="46"/>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="79"/>
+      <c r="K3" s="89"/>
       <c r="L3" s="2">
-        <f>COUNTA(E9:E26)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="53"/>
     </row>
@@ -2285,10 +2397,10 @@
       <c r="G4" s="44"/>
       <c r="H4" s="45"/>
       <c r="I4" s="46"/>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="79"/>
       <c r="L4" s="2">
         <f>COUNTA(H9:H26)</f>
         <v>0</v>
@@ -2307,17 +2419,17 @@
       <c r="G5" s="44"/>
       <c r="H5" s="45"/>
       <c r="I5" s="46"/>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="81"/>
       <c r="L5" s="2">
         <f>COUNTA(I9:I26)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M5" s="48">
         <f>IF(L3&lt;&gt;0,L5/L3,0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="2:13" s="43" customFormat="1" ht="14.25" customHeight="1">
@@ -2329,10 +2441,10 @@
       <c r="G6" s="44"/>
       <c r="H6" s="45"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="83"/>
+      <c r="K6" s="79"/>
       <c r="L6" s="2">
         <f>COUNTA(J9:J26)</f>
         <v>0</v>
@@ -2346,26 +2458,30 @@
       <c r="B7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="49" t="s">
+        <v>36</v>
+      </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="49" t="s">
+        <v>37</v>
+      </c>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
-      <c r="J7" s="86" t="s">
+      <c r="J7" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="87"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="54">
         <f>COUNTA(K9:K26)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7" s="55">
         <f>IF(L3&lt;&gt;0,L7/L3,0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="2:13" s="43" customFormat="1" ht="30.75" customHeight="1">
@@ -2399,116 +2515,240 @@
       <c r="K8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="74" t="s">
+      <c r="L8" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="75"/>
+      <c r="M8" s="85"/>
     </row>
     <row r="9" spans="2:13" s="43" customFormat="1" ht="14.25">
-      <c r="B9" s="37"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="B9" s="37">
+        <v>1</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3">
+        <v>42956</v>
+      </c>
+      <c r="G9" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="91"/>
+      <c r="I9" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
+      <c r="K9" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="L9" s="72"/>
       <c r="M9" s="73"/>
     </row>
     <row r="10" spans="2:13" ht="14.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="37">
+        <v>2</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42956</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>44</v>
+      </c>
       <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="I10" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
+      <c r="K10" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="L10" s="72"/>
       <c r="M10" s="73"/>
     </row>
     <row r="11" spans="2:13" ht="14.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="38">
+        <v>3</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3">
+        <v>42956</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>56</v>
+      </c>
       <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="I11" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="K11" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="L11" s="72"/>
       <c r="M11" s="73"/>
     </row>
     <row r="12" spans="2:13" ht="14.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="38">
+        <v>4</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3">
+        <v>42956</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="I12" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="K12" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="L12" s="72"/>
       <c r="M12" s="73"/>
     </row>
     <row r="13" spans="2:13" ht="14.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="38">
+        <v>5</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3">
+        <v>42956</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="I13" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="K13" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="L13" s="72"/>
       <c r="M13" s="73"/>
     </row>
     <row r="14" spans="2:13" ht="14.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="B14" s="38">
+        <v>6</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="5">
+        <v>42956</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="I14" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="K14" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="L14" s="72"/>
       <c r="M14" s="73"/>
     </row>
     <row r="15" spans="2:13" ht="14.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="38">
+        <v>7</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="94">
+        <v>42956</v>
+      </c>
+      <c r="G15" s="94" t="s">
+        <v>54</v>
+      </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="I15" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
+      <c r="K15" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="L15" s="72"/>
       <c r="M15" s="73"/>
     </row>
     <row r="16" spans="2:13" ht="14.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="38">
+        <v>8</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="5">
+        <v>42956</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>55</v>
+      </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
       <c r="J16" s="47"/>
@@ -2652,24 +2892,24 @@
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="40"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="89"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
     </row>
     <row r="27" spans="2:13" ht="30" customHeight="1">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
     </row>
     <row r="28" spans="2:13">
       <c r="E28" s="8"/>
@@ -2691,22 +2931,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
@@ -2714,12 +2943,23 @@
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L22:M22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">

--- a/文档/交付文档模板/04.代码自测结果表（模板）.xlsx
+++ b/文档/交付文档模板/04.代码自测结果表（模板）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>文件修改控制</t>
   </si>
@@ -210,10 +210,6 @@
     <t>患者管理系统</t>
   </si>
   <si>
-    <t>安逸医院内部管理系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建立患者档案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -250,10 +246,6 @@
   </si>
   <si>
     <t>建立个人档案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1094,6 +1086,24 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,71 +1128,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1993,60 +1985,60 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:11" s="11" customFormat="1" ht="19.5">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
       <c r="K36" s="15"/>
     </row>
     <row r="37" spans="1:11" s="11" customFormat="1" ht="19.5">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
       <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" s="11" customFormat="1">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
     </row>
     <row r="39" spans="1:11" s="11" customFormat="1">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
     </row>
     <row r="40" spans="1:11" s="11" customFormat="1"/>
     <row r="41" spans="1:11" s="11" customFormat="1"/>
@@ -2095,18 +2087,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1">
       <c r="A3" s="63" t="s">
@@ -2318,7 +2310,7 @@
   <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2347,20 +2339,20 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="2:13" s="43" customFormat="1" ht="15" thickBot="1">
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="50"/>
       <c r="K2" s="36"/>
       <c r="L2" s="51" t="s">
@@ -2371,18 +2363,18 @@
       </c>
     </row>
     <row r="3" spans="2:13" s="43" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="45"/>
       <c r="I3" s="46"/>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="89"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2">
         <v>2</v>
       </c>
@@ -2397,10 +2389,10 @@
       <c r="G4" s="44"/>
       <c r="H4" s="45"/>
       <c r="I4" s="46"/>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="79"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="2">
         <f>COUNTA(H9:H26)</f>
         <v>0</v>
@@ -2419,10 +2411,10 @@
       <c r="G5" s="44"/>
       <c r="H5" s="45"/>
       <c r="I5" s="46"/>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="81"/>
+      <c r="K5" s="90"/>
       <c r="L5" s="2">
         <f>COUNTA(I9:I26)</f>
         <v>7</v>
@@ -2441,10 +2433,10 @@
       <c r="G6" s="44"/>
       <c r="H6" s="45"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="79"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="2">
         <f>COUNTA(J9:J26)</f>
         <v>0</v>
@@ -2471,10 +2463,10 @@
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
-      <c r="J7" s="82" t="s">
+      <c r="J7" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="83"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="54">
         <f>COUNTA(K9:K26)</f>
         <v>7</v>
@@ -2515,246 +2507,230 @@
       <c r="K8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="84" t="s">
+      <c r="L8" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="85"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="2:13" s="43" customFormat="1" ht="14.25">
       <c r="B9" s="37">
         <v>1</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="66" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>40</v>
       </c>
       <c r="F9" s="3">
         <v>42956</v>
       </c>
-      <c r="G9" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="91"/>
+      <c r="G9" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="67"/>
       <c r="I9" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="47"/>
       <c r="K9" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="72"/>
-      <c r="M9" s="73"/>
+        <v>40</v>
+      </c>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
     </row>
     <row r="10" spans="2:13" ht="14.25">
       <c r="B10" s="37">
         <v>2</v>
       </c>
-      <c r="C10" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>43</v>
+      <c r="D10" s="2"/>
+      <c r="E10" s="66" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="3">
         <v>42956</v>
       </c>
-      <c r="G10" s="92" t="s">
-        <v>44</v>
+      <c r="G10" s="68" t="s">
+        <v>43</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="47"/>
       <c r="K10" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
+        <v>40</v>
+      </c>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:13" ht="14.25">
       <c r="B11" s="38">
         <v>3</v>
       </c>
-      <c r="C11" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="93" t="s">
-        <v>45</v>
+      <c r="D11" s="2"/>
+      <c r="E11" s="69" t="s">
+        <v>44</v>
       </c>
       <c r="F11" s="3">
         <v>42956</v>
       </c>
-      <c r="G11" s="94" t="s">
-        <v>56</v>
+      <c r="G11" s="70" t="s">
+        <v>54</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="47"/>
       <c r="K11" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
+        <v>40</v>
+      </c>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
     </row>
     <row r="12" spans="2:13" ht="14.25">
       <c r="B12" s="38">
         <v>4</v>
       </c>
-      <c r="C12" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="95" t="s">
-        <v>46</v>
+      <c r="D12" s="2"/>
+      <c r="E12" s="71" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="3">
         <v>42956</v>
       </c>
-      <c r="G12" s="94" t="s">
-        <v>42</v>
+      <c r="G12" s="70" t="s">
+        <v>41</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="47"/>
       <c r="K12" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
+        <v>40</v>
+      </c>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
     </row>
     <row r="13" spans="2:13" ht="14.25">
       <c r="B13" s="38">
         <v>5</v>
       </c>
-      <c r="C13" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="90" t="s">
+      <c r="C13" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="66"/>
+      <c r="E13" s="69" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>49</v>
       </c>
       <c r="F13" s="3">
         <v>42956</v>
       </c>
-      <c r="G13" s="94" t="s">
-        <v>42</v>
+      <c r="G13" s="70" t="s">
+        <v>41</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="47"/>
       <c r="K13" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
+        <v>40</v>
+      </c>
+      <c r="L13" s="78"/>
+      <c r="M13" s="79"/>
     </row>
     <row r="14" spans="2:13" ht="14.25">
       <c r="B14" s="38">
         <v>6</v>
       </c>
-      <c r="C14" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>51</v>
+      <c r="C14" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="66"/>
+      <c r="E14" s="69" t="s">
+        <v>49</v>
       </c>
       <c r="F14" s="5">
         <v>42956</v>
       </c>
-      <c r="G14" s="94" t="s">
-        <v>42</v>
+      <c r="G14" s="70" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
+        <v>40</v>
+      </c>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
     </row>
     <row r="15" spans="2:13" ht="14.25">
       <c r="B15" s="38">
         <v>7</v>
       </c>
-      <c r="C15" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="90" t="s">
+      <c r="C15" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="F15" s="70">
+        <v>42956</v>
+      </c>
+      <c r="G15" s="70" t="s">
         <v>52</v>
-      </c>
-      <c r="F15" s="94">
-        <v>42956</v>
-      </c>
-      <c r="G15" s="94" t="s">
-        <v>54</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="47"/>
       <c r="K15" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+        <v>40</v>
+      </c>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
     </row>
     <row r="16" spans="2:13" ht="14.25">
       <c r="B16" s="38">
         <v>8</v>
       </c>
-      <c r="C16" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>53</v>
+      <c r="C16" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="69" t="s">
+        <v>51</v>
       </c>
       <c r="F16" s="5">
         <v>42956</v>
       </c>
-      <c r="G16" s="94" t="s">
-        <v>55</v>
+      <c r="G16" s="70" t="s">
+        <v>53</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:13" ht="14.25">
       <c r="B17" s="38"/>
@@ -2767,8 +2743,8 @@
       <c r="I17" s="47"/>
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
     </row>
     <row r="18" spans="2:13" ht="14.25">
       <c r="B18" s="38"/>
@@ -2781,8 +2757,8 @@
       <c r="I18" s="47"/>
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:13" ht="14.25">
       <c r="B19" s="38"/>
@@ -2794,8 +2770,8 @@
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
       <c r="K19" s="47"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:13" ht="14.25">
       <c r="B20" s="38"/>
@@ -2808,8 +2784,8 @@
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:13" ht="14.25">
       <c r="B21" s="38"/>
@@ -2822,8 +2798,8 @@
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:13" ht="14.25">
       <c r="B22" s="38"/>
@@ -2836,8 +2812,8 @@
       <c r="I22" s="47"/>
       <c r="J22" s="47"/>
       <c r="K22" s="47"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="73"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
     </row>
     <row r="23" spans="2:13" ht="14.25">
       <c r="B23" s="38"/>
@@ -2850,8 +2826,8 @@
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="73"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
     </row>
     <row r="24" spans="2:13" ht="14.25">
       <c r="B24" s="38"/>
@@ -2864,8 +2840,8 @@
       <c r="I24" s="47"/>
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
     </row>
     <row r="25" spans="2:13" ht="14.25">
       <c r="B25" s="38"/>
@@ -2878,8 +2854,8 @@
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="73"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
     </row>
     <row r="26" spans="2:13" ht="12.75" thickBot="1">
       <c r="B26" s="39"/>
@@ -2892,24 +2868,24 @@
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="40"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="95"/>
     </row>
     <row r="27" spans="2:13" ht="30" customHeight="1">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
     </row>
     <row r="28" spans="2:13">
       <c r="E28" s="8"/>
@@ -2931,24 +2907,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
@@ -2960,6 +2918,24 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L22:M22"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
